--- a/Materia_2-PowerBi/IP - EX 34 - Atingir metas (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 34 - Atingir metas (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224C9746-1329-4CAF-9B04-9C7D3B4EB05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F516D-3C87-485A-962A-88CD28941E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>P1</t>
   </si>
@@ -128,16 +128,26 @@
   </si>
   <si>
     <t>Atingir Metas</t>
+  </si>
+  <si>
+    <t>Média da escola</t>
+  </si>
+  <si>
+    <t>De maneira Automática</t>
+  </si>
+  <si>
+    <t>Nota nessária</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +262,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF22409A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -279,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -492,12 +526,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -601,6 +661,24 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1267,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,14 +1528,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Q16"/>
+  <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1629,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>28</v>
@@ -1643,7 +1722,9 @@
       <c r="B15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>6</v>
+      </c>
       <c r="G15" s="19" t="s">
         <v>27</v>
       </c>
@@ -1658,12 +1739,105 @@
       </c>
       <c r="C16" s="16">
         <f>IFERROR(AVERAGE(C10:C15),"")</f>
-        <v>4</v>
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="47">
+        <f>IFERROR(AVERAGE(C20:C25),"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="51">
+        <f>IF(IF(COUNT(C20:C25)=6,
+"Todas as notas inseridas",
+(C27*6-SUM(C20:C25))/(6-COUNT(C20:C25)))&lt;0,0,IF(COUNT(C20:C25)=6,
+"Todas as notas inseridas",
+(C27*6-SUM(C20:C25))/(6-COUNT(C20:C25))))</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <scenarios current="0" show="0" sqref="C16">
+    <scenario name="Média" locked="1" count="6" user="Lorenzo Bianchi" comment="Criado por Lorenzo Bianchi em 06/03/2025_x000a_Alterado por Lorenzo Bianchi em 06/03/2025">
+      <inputCells r="C10" val="3"/>
+      <inputCells r="C11" val="3"/>
+      <inputCells r="C12" val="5"/>
+      <inputCells r="C13" val="7"/>
+      <inputCells r="C14" val="5"/>
+      <inputCells r="C15" val="6"/>
+    </scenario>
+  </scenarios>
+  <mergeCells count="2">
     <mergeCell ref="B2:Q6"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Materia_2-PowerBi/IP - EX 34 - Atingir metas (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 34 - Atingir metas (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F516D-3C87-485A-962A-88CD28941E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABEDACF-38A8-49E8-910B-84C7CE8DED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +282,23 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF22409A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF22409A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -588,7 +605,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,6 +696,10 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1353,96 +1373,96 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1466,24 +1486,24 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="2:17" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -1530,109 +1550,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="23" t="str">
         <f>CONTEÚDO!B2</f>
         <v>Atingir Metas</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
@@ -1649,88 +1670,90 @@
     </row>
     <row r="9" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>3</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="52">
+        <v>999.99999999999977</v>
+      </c>
     </row>
     <row r="11" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>3</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>15.9</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>5</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <f>H11*H10</f>
-        <v>0</v>
+        <v>15899.999999999996</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>7</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>5.9</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>5</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <f>H13*H10</f>
-        <v>0</v>
+        <v>5899.9999999999991</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>6</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <f>H12-H14</f>
-        <v>0</v>
+        <v>9999.9999999999964</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="21" x14ac:dyDescent="0.35">
@@ -1743,79 +1766,79 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="48"/>
     </row>
     <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="46">
         <f>IFERROR(AVERAGE(C20:C25),"")</f>
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="46">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="50">
         <f>IF(IF(COUNT(C20:C25)=6,
 "Todas as notas inseridas",
 (C27*6-SUM(C20:C25))/(6-COUNT(C20:C25)))&lt;0,0,IF(COUNT(C20:C25)=6,
@@ -1848,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,97 +1882,97 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="23" t="str">
         <f>CONTEÚDO!B2</f>
         <v>Atingir Metas</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
@@ -1961,56 +1984,56 @@
     </row>
     <row r="9" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38">
-        <v>7209.3023255813951</v>
-      </c>
-      <c r="E11" s="38"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37">
+        <v>8604.6511627906966</v>
+      </c>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="38">
+      <c r="C13" s="35"/>
+      <c r="D13" s="37">
         <f>D11*0.02</f>
-        <v>144.18604651162789</v>
-      </c>
-      <c r="E13" s="38"/>
+        <v>172.09302325581393</v>
+      </c>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="38">
+      <c r="C14" s="35"/>
+      <c r="D14" s="37">
         <f>D11*0.12</f>
-        <v>865.11627906976742</v>
-      </c>
-      <c r="E14" s="38"/>
+        <v>1032.5581395348836</v>
+      </c>
+      <c r="E14" s="37"/>
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2019,49 +2042,49 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38">
+      <c r="C15" s="35"/>
+      <c r="D15" s="37">
         <v>80</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="G15" s="39" t="s">
+      <c r="E15" s="37"/>
+      <c r="G15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38">
+      <c r="C16" s="35"/>
+      <c r="D16" s="37">
         <v>120</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
+      <c r="E16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="45">
+      <c r="C17" s="36"/>
+      <c r="D17" s="44">
         <f>D11-SUM(D13:E16)</f>
-        <v>6000</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+        <v>7199.9999999999991</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
